--- a/Classification/Projet Classification/tableau comparatif essai random forest.xlsx
+++ b/Classification/Projet Classification/tableau comparatif essai random forest.xlsx
@@ -82,25 +82,25 @@
     <t xml:space="preserve">non</t>
   </si>
   <si>
+    <t xml:space="preserve">Fraudes = 8213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-fraudes = 8213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step, type, amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oui</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.99975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraudes = 8213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-fraudes = 8213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">step, type, amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oui</t>
   </si>
   <si>
     <t xml:space="preserve">Fraudes = 1000000</t>
@@ -136,15 +136,21 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -157,6 +163,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -185,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,19 +211,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,10 +264,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -342,9 +375,10 @@
       <c r="N2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="O2" s="6" t="n">
+        <v>0.99932</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
@@ -353,7 +387,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -370,6 +404,7 @@
         <v>0.99</v>
       </c>
       <c r="O3" s="6"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
@@ -388,7 +423,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>19</v>
@@ -415,8 +450,9 @@
         <v>0.99</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
@@ -425,7 +461,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -442,6 +478,7 @@
         <v>0.99</v>
       </c>
       <c r="O5" s="6"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
@@ -454,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>19</v>
@@ -487,8 +524,9 @@
         <v>0.98</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
@@ -497,7 +535,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -514,6 +552,7 @@
         <v>0.98</v>
       </c>
       <c r="O7" s="6"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -535,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>419820</v>
@@ -558,9 +597,10 @@
       <c r="N8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O8" s="6" t="n">
-        <v>0.99932</v>
-      </c>
+      <c r="O8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
@@ -586,6 +626,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="6"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -598,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
@@ -633,6 +674,7 @@
       <c r="O10" s="6" t="n">
         <v>0.99946</v>
       </c>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
@@ -641,7 +683,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -658,6 +700,7 @@
         <v>0.96</v>
       </c>
       <c r="O11" s="6"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -670,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
@@ -679,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>417664</v>
@@ -705,6 +748,7 @@
       <c r="O12" s="6" t="n">
         <v>0.99528</v>
       </c>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
@@ -730,17 +774,188 @@
         <v>1</v>
       </c>
       <c r="O13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="9"/>
+    </row>
     <row r="24" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
